--- a/clutter/Product Specs.xlsx
+++ b/clutter/Product Specs.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\myfiles\hrh33\dos\FYP Adjustabike\clutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C42092C-E088-42B6-B1CC-AB9613073609}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA912C-9853-4302-B87A-FAA1D08A784C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13110" yWindow="-240" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
+    <workbookView xWindow="-8655" yWindow="-300" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
   </bookViews>
   <sheets>
     <sheet name="bike" sheetId="1" r:id="rId1"/>
     <sheet name="kit" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bike!$A$2:$D$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="80">
   <si>
     <t>D/W</t>
   </si>
@@ -203,6 +206,75 @@
   </si>
   <si>
     <t>Design can be either adapted (different parts) or adjusted to suit riders of * to * in height</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>joints</t>
+  </si>
+  <si>
+    <t>manufacture</t>
+  </si>
+  <si>
+    <t>Max weight/metre of *</t>
+  </si>
+  <si>
+    <t>The following lengths should be possible: * * *</t>
+  </si>
+  <si>
+    <t>Maximum cost of *</t>
+  </si>
+  <si>
+    <t>Minimise cost</t>
+  </si>
+  <si>
+    <t>The following angles should be possible: * * *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemble securely </t>
+  </si>
+  <si>
+    <t>Possible to manufacture safely with only the tools available to a layman</t>
+  </si>
+  <si>
+    <t>Possible to manufacture with one person (can use vices to secure work)</t>
+  </si>
+  <si>
+    <t>Maximum manufacture time for basic kit: *</t>
+  </si>
+  <si>
+    <t>All components commercially available to a layman</t>
+  </si>
+  <si>
+    <t>Consistent/repeatable from documentation</t>
+  </si>
+  <si>
+    <t>other systems</t>
+  </si>
+  <si>
+    <t>Components for other systems (ie wheels, brakes, pedals, drive, steering, seat) selected to satisfy bike requirements</t>
+  </si>
+  <si>
+    <t>Attachment for other systems (ie wheels, brakes, pedals, drive, steering, seat) designed to satisfy bike requirements</t>
+  </si>
+  <si>
+    <t>All parts compatible</t>
+  </si>
+  <si>
+    <t>Minimum load of * in tension/compression and * bending</t>
+  </si>
+  <si>
+    <t>Minimum 'gripping' force of * and resistance to torque of *</t>
+  </si>
+  <si>
+    <t>Possibility of a different length without cutting link</t>
+  </si>
+  <si>
+    <t>Possibility of a different angle without using a different joint</t>
+  </si>
+  <si>
+    <t>"Standard" bike geometry and at least one other geometry possible</t>
   </si>
 </sst>
 </file>
@@ -253,11 +325,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,6 +335,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,325 +671,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78235AD6-7E08-4F88-97EC-47267900DBCA}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
+      <c r="B9" s="3">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4">
-        <v>4</v>
+      <c r="B14" s="3">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4">
-        <v>2</v>
+      <c r="B19" s="3">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C23" t="s">
@@ -916,311 +1003,316 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="4">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="4">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="4">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D45" xr:uid="{5B0B970C-CDD1-4F7E-94EE-E3839C10F8E5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D45">
+      <sortCondition ref="C2:C45"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -1231,12 +1323,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D9CDE-2ACC-4300-AB58-DC0F6A745C84}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clutter/Product Specs.xlsx
+++ b/clutter/Product Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\myfiles\hrh33\dos\FYP Adjustabike\clutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509E145-C5BF-4204-8470-6A7DA2F77B08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF0E8E5-95E3-4011-8916-AD7410A63898}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="geometries" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bike!$A$2:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bike!$A$2:$F$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">kit!$A$2:$E$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="227">
   <si>
     <t>D/W</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>SPECIFICATION for DIY Bicycle</t>
-  </si>
-  <si>
-    <t>All fastenings must resist load and vibration</t>
   </si>
   <si>
     <t>assembly</t>
@@ -801,9 +798,6 @@
     <t>Sourcing materials and manufacturing methods must be consistent/repeatable from documentation</t>
   </si>
   <si>
-    <t>All parts must be compatible to allow for flexibility</t>
-  </si>
-  <si>
     <t>Maximum total weight of 30kg</t>
   </si>
   <si>
@@ -876,9 +870,6 @@
     <t>Must be able to source all components and raw materials for £* or less</t>
   </si>
   <si>
-    <t>Maintainance (ie. servicing bearings) must be required twice a year or less by a typical user</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wheelbase must be between *mm and *mm </t>
   </si>
   <si>
@@ -889,6 +880,27 @@
   </si>
   <si>
     <t xml:space="preserve">Seat height must be between *mm and *mm </t>
+  </si>
+  <si>
+    <t>Major maintainance (ie. servicing bearings) must be required twice a year or less by a typical user</t>
+  </si>
+  <si>
+    <t>Minior maintainance (ie. cleaning drivetrain) must be required one a week or less for a typical user</t>
+  </si>
+  <si>
+    <t>All components must be compatible to allow for flexibility in alternative geometries</t>
+  </si>
+  <si>
+    <t>All components must be securely fastened together such that they cannot be accidentally unfastened during normal use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All fastenings must be able to withstand the estimated shear and tensile loads they will be subjected to with a safety factor of * </t>
+  </si>
+  <si>
+    <t>All screw threads must have locking devices (such as lock nuts) in order to resist vibration</t>
+  </si>
+  <si>
+    <t>BS EN ISO 4210</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78235AD6-7E08-4F88-97EC-47267900DBCA}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2017,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2020,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2028,7 +2040,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -2037,10 +2049,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,10 +2063,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,10 +2077,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2076,16 +2088,16 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2093,16 +2105,16 @@
         <v>33.5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,13 +2139,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
@@ -2144,16 +2156,16 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2161,10 +2173,10 @@
         <v>24.5</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,10 +2184,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,16 +2195,16 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,16 +2212,16 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,13 +2229,13 @@
         <v>31.5</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,16 +2243,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,16 +2260,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,13 +2277,13 @@
         <v>4.5</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,16 +2291,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,13 +2308,13 @@
         <v>5.5</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,16 +2322,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,16 +2339,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,16 +2356,16 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,16 +2373,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,16 +2390,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,16 +2407,16 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,16 +2424,16 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,16 +2441,16 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,558 +2458,586 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7">
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="7">
-        <v>5</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>22</v>
+        <v>43.5</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>161</v>
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>19.5</v>
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>19.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F64" xr:uid="{2035B645-7B6F-485F-9266-35A4E14D27BF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F64">
-      <sortCondition ref="D2:D64"/>
+  <autoFilter ref="A2:F67" xr:uid="{2035B645-7B6F-485F-9266-35A4E14D27BF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F67">
+      <sortCondition ref="D2:D67"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -3038,7 +3078,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -3058,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,16 +3115,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,16 +3132,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,16 +3149,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,16 +3166,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,16 +3183,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,16 +3200,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3177,16 +3217,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3194,16 +3234,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,16 +3268,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3245,16 +3285,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3262,16 +3302,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3279,16 +3319,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,16 +3336,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,16 +3353,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,13 +3370,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>10</v>
@@ -3347,16 +3387,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,16 +3404,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,16 +3421,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,16 +3438,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,16 +3455,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,16 +3472,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,16 +3489,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3466,16 +3506,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,16 +3523,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3531,44 +3571,44 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="L2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="42"/>
       <c r="I3" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="31">
         <f>J61</f>
@@ -3606,25 +3646,25 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="34">
         <f>I33</f>
@@ -3662,7 +3702,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1470</v>
@@ -3681,7 +3721,7 @@
         <v>714.66075868204769</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="37">
         <f>J81</f>
@@ -3719,7 +3759,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="13">
         <v>1570</v>
@@ -3740,7 +3780,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>1670</v>
@@ -3759,37 +3799,37 @@
         <v>740.65984095264673</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="27" t="s">
+      <c r="M7" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="N7" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="O7" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="P7" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13">
         <v>1600</v>
@@ -3808,7 +3848,7 @@
         <v>717.83354616512599</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="28">
         <f>MIN(E$5:E$10,C$14:C$19,C$23:C$27,C$31:C$35,C$39:C$43,C$47:C$49)</f>
@@ -3846,7 +3886,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1670</v>
@@ -3865,7 +3905,7 @@
         <v>746.93105438186194</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="28">
         <f>MAX(E$5:E$10,C$14:C$19,C$23:C$27,C$31:C$35,C$39:C$43,C$47:C$49)</f>
@@ -3903,7 +3943,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>1750</v>
@@ -3927,41 +3967,41 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="I11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="28" t="s">
-        <v>50</v>
-      </c>
       <c r="L11" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="N11" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="O11" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="P11" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="9"/>
       <c r="I12" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="28">
         <f>MIN(E$5:E$10,C$14:C$19,C$23:C$27,C$31:C$35,C$39:C$43,C$47:C$49,I61:M61,I81:N81)</f>
@@ -3999,20 +4039,20 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9"/>
       <c r="I13" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="28">
         <f>MAX(E$5:E$10,C$14:C$19,C$23:C$27,C$31:C$35,C$39:C$43,C$47:C$49,I61:M61,I81:N81)</f>
@@ -4050,7 +4090,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13">
         <v>607</v>
@@ -4066,7 +4106,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>626</v>
@@ -4082,7 +4122,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="13">
         <v>617</v>
@@ -4098,7 +4138,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>626</v>
@@ -4113,7 +4153,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>635</v>
@@ -4126,12 +4166,12 @@
         <v>736.95386558454254</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>645</v>
@@ -4145,24 +4185,24 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="16">
         <v>400</v>
@@ -4182,10 +4222,10 @@
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="16">
         <v>557</v>
@@ -4205,19 +4245,19 @@
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="16">
         <v>70</v>
@@ -4237,7 +4277,7 @@
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13">
         <v>584</v>
@@ -4250,7 +4290,7 @@
         <v>701.6958030371851</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="16">
         <v>73</v>
@@ -4270,7 +4310,7 @@
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>599</v>
@@ -4283,7 +4323,7 @@
         <v>719.16966009419502</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="16">
         <v>690</v>
@@ -4303,7 +4343,7 @@
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>616</v>
@@ -4316,7 +4356,7 @@
         <v>738.31226456019272</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="16">
         <v>134</v>
@@ -4336,7 +4376,7 @@
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>632</v>
@@ -4349,7 +4389,7 @@
         <v>756.07473175606128</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="16">
         <v>1053</v>
@@ -4369,7 +4409,7 @@
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>645</v>
@@ -4382,7 +4422,7 @@
         <v>772.43122671212609</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="16">
         <v>627</v>
@@ -4402,7 +4442,7 @@
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="16">
         <v>435</v>
@@ -4422,10 +4462,10 @@
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="16">
         <v>68</v>
@@ -4445,19 +4485,19 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="16">
         <v>277</v>
@@ -4477,7 +4517,7 @@
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="13">
         <v>554</v>
@@ -4490,7 +4530,7 @@
         <v>676.35789342625401</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="16">
         <v>55</v>
@@ -4510,7 +4550,7 @@
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>578</v>
@@ -4523,7 +4563,7 @@
         <v>700.64256222413439</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I32" s="16">
         <v>67</v>
@@ -4543,7 +4583,7 @@
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>602</v>
@@ -4556,7 +4596,7 @@
         <v>724.99655171593747</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I33" s="16">
         <v>554</v>
@@ -4576,7 +4616,7 @@
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>626</v>
@@ -4589,7 +4629,7 @@
         <v>749.4131037018235</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="16">
         <v>388</v>
@@ -4609,7 +4649,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>650</v>
@@ -4624,68 +4664,68 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" s="17"/>
       <c r="I37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="K37" t="s">
         <v>96</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>97</v>
       </c>
-      <c r="L37" t="s">
-        <v>98</v>
-      </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
         <v>49</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s">
         <v>99</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="J38" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="K38" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>524</v>
@@ -4698,10 +4738,10 @@
         <v>659.2237859786311</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="17">
         <v>550</v>
@@ -4721,7 +4761,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="13">
         <v>538</v>
@@ -4734,10 +4774,10 @@
         <v>674.00296735251845</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I40" s="17">
         <v>100</v>
@@ -4757,7 +4797,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>556</v>
@@ -4770,30 +4810,30 @@
         <v>690.82269794788874</v>
       </c>
       <c r="G41" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
         <v>104</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="L41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>585</v>
@@ -4806,10 +4846,10 @@
         <v>717.83075999848324</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I42" s="17">
         <v>1069</v>
@@ -4829,7 +4869,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>613</v>
@@ -4842,10 +4882,10 @@
         <v>744.7805045783623</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="17">
         <v>451</v>
@@ -4865,10 +4905,10 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G44" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I44" s="17">
         <v>524</v>
@@ -4888,13 +4928,13 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="17">
         <v>400</v>
@@ -4914,22 +4954,22 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I46" s="17">
         <v>682</v>
@@ -4949,7 +4989,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>530</v>
@@ -4962,10 +5002,10 @@
         <v>652.15028942721483</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I47" s="17">
         <v>170</v>
@@ -4985,7 +5025,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="13">
         <v>554</v>
@@ -5000,7 +5040,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>578</v>
@@ -5013,32 +5053,32 @@
         <v>700.64256222413439</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="21" t="s">
+      <c r="K50" t="s">
         <v>96</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>97</v>
       </c>
-      <c r="L50" t="s">
-        <v>98</v>
-      </c>
       <c r="M50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G51" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" s="17">
         <v>370</v>
@@ -5058,33 +5098,33 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G52" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" t="s">
         <v>99</v>
       </c>
-      <c r="H52" t="s">
-        <v>100</v>
-      </c>
       <c r="I52" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G53" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" s="17">
         <v>565</v>
@@ -5104,10 +5144,10 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G54" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I54" s="17">
         <v>95</v>
@@ -5127,33 +5167,33 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G55" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" t="s">
         <v>104</v>
       </c>
-      <c r="H55" t="s">
-        <v>105</v>
-      </c>
       <c r="I55" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G56" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I56" s="17">
         <v>42</v>
@@ -5173,10 +5213,10 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G57" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I57" s="17">
         <v>108.2</v>
@@ -5196,10 +5236,10 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G58" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I58" s="17">
         <v>1089</v>
@@ -5219,10 +5259,10 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G59" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I59" s="17">
         <v>425</v>
@@ -5242,10 +5282,10 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G60" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I60" s="17">
         <v>45</v>
@@ -5265,10 +5305,10 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G61" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I61" s="17">
         <v>584</v>
@@ -5288,10 +5328,10 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G62" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I62" s="17">
         <v>392</v>
@@ -5311,10 +5351,10 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G63" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I63" s="17">
         <v>667</v>
@@ -5334,10 +5374,10 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G64" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64" s="17">
         <v>780</v>
@@ -5357,10 +5397,10 @@
     </row>
     <row r="65" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G65" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I65" s="17">
         <v>40</v>
@@ -5380,10 +5420,10 @@
     </row>
     <row r="66" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G66" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I66" s="17">
         <v>170</v>
@@ -5403,58 +5443,58 @@
     </row>
     <row r="67" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G67" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" t="s">
         <v>127</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="J67" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="7:14" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="K70" t="s">
         <v>96</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
+        <v>136</v>
+      </c>
+      <c r="M70" t="s">
         <v>97</v>
       </c>
-      <c r="L70" t="s">
-        <v>137</v>
-      </c>
-      <c r="M70" t="s">
-        <v>98</v>
-      </c>
       <c r="N70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G71" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I71" s="17">
         <v>430</v>
@@ -5477,36 +5517,36 @@
     </row>
     <row r="72" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J72" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="K72" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G73" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I73" s="17">
         <v>515</v>
@@ -5529,10 +5569,10 @@
     </row>
     <row r="74" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G74" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I74" s="17">
         <v>123</v>
@@ -5555,36 +5595,36 @@
     </row>
     <row r="75" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G75" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I75" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="J75" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G76" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I76" s="17">
         <v>50</v>
@@ -5607,10 +5647,10 @@
     </row>
     <row r="77" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G77" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I77" s="17">
         <v>66.8</v>
@@ -5633,10 +5673,10 @@
     </row>
     <row r="78" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G78" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I78" s="17">
         <v>985</v>
@@ -5659,10 +5699,10 @@
     </row>
     <row r="79" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G79" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I79" s="17">
         <v>412</v>
@@ -5685,10 +5725,10 @@
     </row>
     <row r="80" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G80" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I80" s="17">
         <v>75</v>
@@ -5711,10 +5751,10 @@
     </row>
     <row r="81" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G81" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I81" s="17">
         <v>524</v>
@@ -5737,10 +5777,10 @@
     </row>
     <row r="82" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G82" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I82" s="17">
         <v>372</v>
@@ -5763,10 +5803,10 @@
     </row>
     <row r="83" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G83" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I83" s="17">
         <v>720</v>
@@ -5789,10 +5829,10 @@
     </row>
     <row r="84" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G84" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I84" s="17">
         <v>400</v>
@@ -5815,10 +5855,10 @@
     </row>
     <row r="85" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G85" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I85" s="17">
         <v>80</v>
@@ -5841,10 +5881,10 @@
     </row>
     <row r="86" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G86" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="17">
         <v>165</v>
@@ -5867,28 +5907,28 @@
     </row>
     <row r="87" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G87" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I87" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/clutter/Product Specs.xlsx
+++ b/clutter/Product Specs.xlsx
@@ -1,49 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\myfiles\hrh33\dos\FYP Adjustabike\clutter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dos\FYP Adjustabike\clutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC9CB8-18E6-4EB7-B4FC-F10068114FAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9894E95D-36A9-4EB3-9D7D-2E045579F176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
   </bookViews>
   <sheets>
     <sheet name="bike spec" sheetId="1" r:id="rId1"/>
-    <sheet name="drop tests" sheetId="4" r:id="rId2"/>
-    <sheet name="kit spec" sheetId="2" r:id="rId3"/>
+    <sheet name="test methods" sheetId="4" r:id="rId2"/>
+    <sheet name="market breakdown" sheetId="9" r:id="rId3"/>
     <sheet name="geometry study" sheetId="3" r:id="rId4"/>
-    <sheet name="weight study" sheetId="5" r:id="rId5"/>
-    <sheet name="cost study" sheetId="6" r:id="rId6"/>
-    <sheet name="component study" sheetId="7" r:id="rId7"/>
-    <sheet name="frame kit eval" sheetId="8" r:id="rId8"/>
+    <sheet name="component study" sheetId="7" r:id="rId5"/>
+    <sheet name="avtech" sheetId="10" r:id="rId6"/>
+    <sheet name="avtech eval" sheetId="8" r:id="rId7"/>
+    <sheet name="kit spec" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bike spec'!$B$2:$F$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'kit spec'!$A$2:$E$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'bike spec'!$B$1:$L$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bike spec'!$B$2:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'kit spec'!$A$2:$E$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'bike spec'!$B$1:$L$128</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="465">
   <si>
     <t>D/W</t>
   </si>
@@ -936,9 +930,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>company</t>
-  </si>
-  <si>
     <t>product line</t>
   </si>
   <si>
@@ -1174,16 +1165,467 @@
   </si>
   <si>
     <t>Must be able to source all components and raw materials for £1,200 or less</t>
+  </si>
+  <si>
+    <t>Bike should be aesthetically pleasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissassembled, the bike should fit into a hard shell travel case with internal dimensions of 625 x 610 x 240 mm (preferably without detaching cables) </t>
+  </si>
+  <si>
+    <t>ISO4210-6 4.1</t>
+  </si>
+  <si>
+    <t>ref.</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>falling striker</t>
+  </si>
+  <si>
+    <t>frame and fork</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>mass (kg)</t>
+  </si>
+  <si>
+    <t>height (mm)</t>
+  </si>
+  <si>
+    <t>ISO4210-6 4.2</t>
+  </si>
+  <si>
+    <t>falling frame</t>
+  </si>
+  <si>
+    <t>SP:50, ST:10, BB:30</t>
+  </si>
+  <si>
+    <t>req. ref.</t>
+  </si>
+  <si>
+    <t>ISO4210-2 4.8.2</t>
+  </si>
+  <si>
+    <t>ISO4210-2 4.8.3</t>
+  </si>
+  <si>
+    <t>ISO4210-2 4.9.5</t>
+  </si>
+  <si>
+    <t>ISO4210-6 5.4</t>
+  </si>
+  <si>
+    <t>fork only</t>
+  </si>
+  <si>
+    <t>note - permenant deformation is the difference between the length under static load before and after impact</t>
+  </si>
+  <si>
+    <t>note - for falling striker drop tests, striker must reach at least 95% of its falling velocity (neglecting air resistance)</t>
+  </si>
+  <si>
+    <t>clamped vertically (axles in line) by rear axle; striker falls on 1kg roller in fork axle or dummy fork</t>
+  </si>
+  <si>
+    <t>supported horizontally; clamped but free to rotate at rear axle and resting on roller at front axle; weights attached to seat post, steering head, and bottom bracket; front axle lifted and dropped twice</t>
+  </si>
+  <si>
+    <t>wheelbase permenant deformation not more than 30mm if using fork or 10 mm if using dummy fork; no cracks, fractures, or separation</t>
+  </si>
+  <si>
+    <t>wheelbase permenant deformation not more than 60mm; no cracks, fractures, or separation</t>
+  </si>
+  <si>
+    <t>supported by head bearings as a horizontal cantilever; striker dropped onto roller in rearward direction</t>
+  </si>
+  <si>
+    <t>permemant deformation of axle displacement relative to fork steerer axis not more than 45mm no cracks, fractures, or separation</t>
+  </si>
+  <si>
+    <t>no fractures</t>
+  </si>
+  <si>
+    <t>(test 3)</t>
+  </si>
+  <si>
+    <t>torque of 50Nm applied about fork steerer</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>no relative motion between steerer and crown</t>
+  </si>
+  <si>
+    <t>same falling striker setup</t>
+  </si>
+  <si>
+    <t>falling striker (test 1) --&gt;</t>
+  </si>
+  <si>
+    <t>(test 2) --&gt;</t>
+  </si>
+  <si>
+    <t>ISO4210-3 Annex A</t>
+  </si>
+  <si>
+    <t>structural integrity</t>
+  </si>
+  <si>
+    <t>whole assembled bicycle</t>
+  </si>
+  <si>
+    <t>attach weights to seat post, each crank, and each side of the handlebar; drive on machine at 8 km/h for 6h</t>
+  </si>
+  <si>
+    <t>SP:36, CR:[2x]18, HB:[2x]6.75</t>
+  </si>
+  <si>
+    <t>no system or component failure; no misalignment or loosening</t>
+  </si>
+  <si>
+    <t>SUMMARY OF TEST METHODS FROM ISO4210 REFERENCED IN SPECIFICATION</t>
+  </si>
+  <si>
+    <t>company/shop/site</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>link(s)</t>
+  </si>
+  <si>
+    <t>the tube &amp; bracket company</t>
+  </si>
+  <si>
+    <t>graphit</t>
+  </si>
+  <si>
+    <t>modular storage; tubes and brackets; different ranges available</t>
+  </si>
+  <si>
+    <t>pdf brochures</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>item24</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>industrial building kit; extruded aluminium and connectors</t>
+  </si>
+  <si>
+    <t>metals4u</t>
+  </si>
+  <si>
+    <t>aluminium tubes and clamps for handrails</t>
+  </si>
+  <si>
+    <t>the metal store</t>
+  </si>
+  <si>
+    <t>interclamp</t>
+  </si>
+  <si>
+    <t>tube clamps and fittings for handrails (could be source for the above?)</t>
+  </si>
+  <si>
+    <t>KeyClampStore</t>
+  </si>
+  <si>
+    <t>key clamps from various suppliers</t>
+  </si>
+  <si>
+    <t>webpage for 34mm tube</t>
+  </si>
+  <si>
+    <t>Scaffolding Direct</t>
+  </si>
+  <si>
+    <t>Aluminium tubes and clamps for scaffolding</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>33.7mm clamps</t>
+  </si>
+  <si>
+    <t>to add:</t>
+  </si>
+  <si>
+    <t>scaffolding (so far I've only covered handrails)</t>
+  </si>
+  <si>
+    <t>timber</t>
+  </si>
+  <si>
+    <t>bamboo</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>box section</t>
+  </si>
+  <si>
+    <t>RS - clamps, bearings, etc</t>
+  </si>
+  <si>
+    <t>flat bar</t>
+  </si>
+  <si>
+    <t>polymer - tubes? Flat? How to clamp? Could use lasercutting to make 'meccano' pieces?</t>
+  </si>
+  <si>
+    <t>re-structure - lead with descriptive category, then list sources, diameters, etc.</t>
+  </si>
+  <si>
+    <t>other components - ie. Wheels, etc.</t>
+  </si>
+  <si>
+    <t>mainstream bicycles</t>
+  </si>
+  <si>
+    <t>unusual bicycles</t>
+  </si>
+  <si>
+    <t>alternative cycles</t>
+  </si>
+  <si>
+    <t>DIY cycle kits</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>fixie</t>
+  </si>
+  <si>
+    <t>bmx</t>
+  </si>
+  <si>
+    <t>dutch upright</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>high end</t>
+  </si>
+  <si>
+    <t>entry level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folding </t>
+  </si>
+  <si>
+    <t>wooden</t>
+  </si>
+  <si>
+    <t>tallbike</t>
+  </si>
+  <si>
+    <t>split frame</t>
+  </si>
+  <si>
+    <t>S&amp;S couplers, breakaway, splitbikes</t>
+  </si>
+  <si>
+    <t>penny farthing</t>
+  </si>
+  <si>
+    <t>tandem</t>
+  </si>
+  <si>
+    <t>cardboard</t>
+  </si>
+  <si>
+    <t>longbike</t>
+  </si>
+  <si>
+    <t>recumbent</t>
+  </si>
+  <si>
+    <t>recumbent trike</t>
+  </si>
+  <si>
+    <t>cruiser trike</t>
+  </si>
+  <si>
+    <t>stunt trike</t>
+  </si>
+  <si>
+    <t>cargo trike</t>
+  </si>
+  <si>
+    <t>unicycle</t>
+  </si>
+  <si>
+    <t>quadcycle</t>
+  </si>
+  <si>
+    <t>tuk-tuk</t>
+  </si>
+  <si>
+    <t>wheelchair tandem</t>
+  </si>
+  <si>
+    <t>handbike</t>
+  </si>
+  <si>
+    <t>aftermarket</t>
+  </si>
+  <si>
+    <t>rear wheel childseat</t>
+  </si>
+  <si>
+    <t>trailerbike tandem</t>
+  </si>
+  <si>
+    <t>tandem coupler</t>
+  </si>
+  <si>
+    <t>S&amp;S coupler</t>
+  </si>
+  <si>
+    <t>wheelchair handbike attachement</t>
+  </si>
+  <si>
+    <t>trailer</t>
+  </si>
+  <si>
+    <t>sidecar</t>
+  </si>
+  <si>
+    <t>for children, dogs, or cargo</t>
+  </si>
+  <si>
+    <t>trike conversion set</t>
+  </si>
+  <si>
+    <t>infento</t>
+  </si>
+  <si>
+    <t>bellcycle</t>
+  </si>
+  <si>
+    <t>XYZ cargobikes</t>
+  </si>
+  <si>
+    <t>OBI 0.5</t>
+  </si>
+  <si>
+    <t>woodenwidget</t>
+  </si>
+  <si>
+    <t>adjustabike 1.0</t>
+  </si>
+  <si>
+    <t>fit bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fully adjustable but stationary; used for bike fittings </t>
+  </si>
+  <si>
+    <t>weight (kg)</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>item24 industrial building kits</t>
+  </si>
+  <si>
+    <t>Lean manufacturing tubes (diameter*mm)</t>
+  </si>
+  <si>
+    <t>Round grooved profile extrusions</t>
+  </si>
+  <si>
+    <t>Square grooved profile extrusions B</t>
+  </si>
+  <si>
+    <t>Square grooved profile extrusions A</t>
+  </si>
+  <si>
+    <t>tube and bracket company</t>
+  </si>
+  <si>
+    <t>grooved or smooth tubes 28.6mm diameter; aluminium; graphit (composit) joints</t>
+  </si>
+  <si>
+    <t>grooved or smooth tubes 28.6mm diameter; steel; graphit (composit) joints</t>
+  </si>
+  <si>
+    <t>grooved or smooth tubes 28.6mm diameter;aluminium; leantek (metal) joints</t>
+  </si>
+  <si>
+    <t>grooved or smooth tubes 28.6mm diameter; steel; leantek (metal) joints</t>
+  </si>
+  <si>
+    <t>hand railings</t>
+  </si>
+  <si>
+    <t>polymer tubes</t>
+  </si>
+  <si>
+    <t>polymer flat bar</t>
+  </si>
+  <si>
+    <t>scaffolding</t>
+  </si>
+  <si>
+    <t>26mm steel</t>
+  </si>
+  <si>
+    <t>33mm steel</t>
+  </si>
+  <si>
+    <t>48mm steel</t>
+  </si>
+  <si>
+    <t>48mm aluminium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,8 +1693,23 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,8 +1758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1508,12 +1971,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1600,29 +2074,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1644,12 +2100,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1669,9 +2119,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1682,14 +2129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1700,6 +2141,99 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2552,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78235AD6-7E08-4F88-97EC-47267900DBCA}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,1826 +3105,1862 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="62" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="63">
+        <v>1</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="44">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="45">
+        <v>4</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="44">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="44">
+        <v>4</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="44">
+        <v>5</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="44">
+        <v>6</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="44">
+        <v>7</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="44">
+        <v>8</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="44">
+        <v>9</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="44">
+        <v>10</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="45">
+        <v>3</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
+      <c r="B13" s="44">
+        <v>11</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="73">
+        <v>12</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
+      <c r="B15" s="44">
+        <v>13</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="97"/>
+      <c r="B16" s="44">
+        <v>14</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="55">
+        <v>2</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="63">
+        <v>15</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="64">
+        <v>3</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="95"/>
+      <c r="B18" s="44">
+        <v>16</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="72">
+      <c r="F18" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="44">
+        <v>17</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="45">
+        <v>3</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="44">
+        <v>18</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
+      <c r="B21" s="44">
+        <v>19</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="45">
+        <v>3</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="95"/>
+      <c r="B22" s="44">
+        <v>20</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="95"/>
+      <c r="B23" s="44">
+        <v>21</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="45">
+        <v>5</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="95"/>
+      <c r="B24" s="44">
+        <v>22</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="95"/>
+      <c r="B25" s="44">
+        <v>23</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="45">
+        <v>4</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="95"/>
+      <c r="B26" s="44">
+        <v>24</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="45">
+        <v>3</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="95"/>
+      <c r="B27" s="44">
+        <v>25</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="45">
+        <v>3</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="95"/>
+      <c r="B28" s="44">
+        <v>26</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="44">
+        <v>27</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="45">
+        <v>4</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="44">
+        <v>28</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="45">
+        <v>4</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="44">
+        <v>29</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="E31" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="44">
+        <v>30</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="80" t="s">
+      <c r="E32" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+      <c r="B33" s="44">
+        <v>31</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="44">
+        <v>32</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="44">
+        <v>33</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="97"/>
+      <c r="B36" s="54">
+        <v>34</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="63">
+        <v>35</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="95"/>
+      <c r="B38" s="44">
+        <v>36</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="95"/>
+      <c r="B39" s="44">
+        <v>37</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="44">
+        <v>38</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="45">
+        <v>2</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="95"/>
+      <c r="B41" s="44">
+        <v>39</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="95"/>
+      <c r="B42" s="44">
+        <v>40</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="45">
+        <v>4</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
+      <c r="B43" s="44">
+        <v>41</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
+      <c r="B44" s="44">
+        <v>42</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="97"/>
+      <c r="B45" s="54">
+        <v>43</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="55">
+        <v>4</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="63">
+        <v>44</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="95"/>
+      <c r="B47" s="44">
+        <v>45</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="95"/>
+      <c r="B48" s="44">
+        <v>46</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="45">
+        <v>4</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="95"/>
+      <c r="B49" s="44">
+        <v>47</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="95"/>
+      <c r="B50" s="44">
+        <v>48</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="95"/>
+      <c r="B51" s="44">
+        <v>49</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="95"/>
+      <c r="B52" s="44">
+        <v>50</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="97"/>
+      <c r="B53" s="54">
+        <v>51</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="55">
+        <v>5</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="63">
+        <v>52</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="44">
+        <v>53</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="95"/>
+      <c r="B56" s="44">
+        <v>54</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="95"/>
+      <c r="B57" s="44">
+        <v>55</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="44">
+        <v>56</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="45">
+        <v>5</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="95"/>
+      <c r="B59" s="44">
+        <v>57</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="45">
+        <v>5</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
+      <c r="B60" s="44">
+        <v>58</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="45">
+        <v>4</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="95"/>
+      <c r="B61" s="44">
+        <v>59</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="97"/>
+      <c r="B62" s="54">
+        <v>60</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="63">
+        <v>61</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="95"/>
+      <c r="B64" s="44">
+        <v>62</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="45">
+        <v>4</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="44">
+        <v>63</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="45">
+        <v>4</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="95"/>
+      <c r="B66" s="44">
+        <v>64</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="95"/>
+      <c r="B67" s="44">
+        <v>65</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="45">
+        <v>4</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="95"/>
+      <c r="B68" s="44">
+        <v>66</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="95"/>
+      <c r="B69" s="44">
+        <v>67</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="97"/>
+      <c r="B70" s="54">
+        <v>68</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="55">
+        <v>5</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="63">
+        <v>69</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="95"/>
+      <c r="B72" s="44">
+        <v>70</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="95"/>
+      <c r="B73" s="44">
+        <v>71</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="45">
+        <v>4</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="95"/>
+      <c r="B74" s="44">
+        <v>72</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="45">
+        <v>4</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="95"/>
+      <c r="B75" s="44">
+        <v>73</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="95"/>
+      <c r="B76" s="44">
+        <v>74</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="E76" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="97"/>
+      <c r="B77" s="54">
+        <v>75</v>
+      </c>
+      <c r="C77" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D77" s="55">
+        <v>2</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="63">
+        <v>76</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="64">
+        <v>1</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="95"/>
+      <c r="B79" s="44">
+        <v>77</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="45">
+        <v>5</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="95"/>
+      <c r="B80" s="44">
+        <v>78</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="95"/>
+      <c r="B81" s="44">
+        <v>79</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="95"/>
+      <c r="B82" s="44">
+        <v>80</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="95"/>
+      <c r="B83" s="44">
+        <v>81</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="95"/>
+      <c r="B84" s="44">
+        <v>82</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="95"/>
+      <c r="B85" s="44">
+        <v>83</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="45">
+        <v>5</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="95"/>
+      <c r="B86" s="44">
+        <v>84</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="95"/>
+      <c r="B87" s="44">
+        <v>85</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="95"/>
+      <c r="B88" s="44">
+        <v>86</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="95"/>
+      <c r="B89" s="44">
+        <v>87</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="95"/>
+      <c r="B90" s="44">
+        <v>88</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="97"/>
+      <c r="B91" s="54">
+        <v>89</v>
+      </c>
+      <c r="C91" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="55">
+        <v>3</v>
+      </c>
+      <c r="E91" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91" s="70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="63">
+        <v>90</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="99"/>
+      <c r="B93" s="44">
+        <v>91</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="48">
+        <v>5</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="99"/>
+      <c r="B94" s="44">
+        <v>92</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="99"/>
+      <c r="B95" s="44">
+        <v>93</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="48">
         <v>4</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50">
-        <v>3</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="E95" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="99"/>
+      <c r="B96" s="44">
+        <v>94</v>
+      </c>
+      <c r="C96" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D96" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50">
+      <c r="E96" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="100"/>
+      <c r="B97" s="54">
+        <v>95</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="63">
+        <v>96</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="64">
         <v>4</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="E98" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F98" s="66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="95"/>
+      <c r="B99" s="44">
+        <v>97</v>
+      </c>
+      <c r="C99" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D99" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50">
+      <c r="E99" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="95"/>
+      <c r="B100" s="44">
+        <v>98</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="E100" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="97"/>
+      <c r="B101" s="54">
+        <v>99</v>
+      </c>
+      <c r="C101" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D101" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50">
-        <v>6</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50">
-        <v>7</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50">
-        <v>8</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50">
-        <v>9</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50">
-        <v>10</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="51">
-        <v>3</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50">
-        <v>11</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62">
-        <v>12</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="72">
-        <v>13</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="73">
-        <v>3</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50">
-        <v>14</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50">
-        <v>15</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="51">
-        <v>3</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50">
-        <v>16</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50">
-        <v>17</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="51">
-        <v>3</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50">
-        <v>18</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50">
-        <v>19</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="51">
-        <v>5</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50">
-        <v>20</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50">
-        <v>21</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="51">
-        <v>4</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50">
-        <v>22</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="51">
-        <v>3</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50">
-        <v>23</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="51">
-        <v>3</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50">
-        <v>24</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50">
-        <v>25</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="51">
-        <v>4</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50">
-        <v>26</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="51">
-        <v>4</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50">
-        <v>27</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="51">
-        <v>1</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50">
-        <v>28</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50">
-        <v>29</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50">
-        <v>30</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50">
-        <v>31</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62">
-        <v>32</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="72">
-        <v>33</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50">
-        <v>34</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50">
-        <v>35</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50">
-        <v>36</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="51">
-        <v>2</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50">
-        <v>37</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50">
-        <v>38</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="51">
-        <v>4</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50">
-        <v>39</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50">
-        <v>40</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62">
-        <v>41</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="63">
-        <v>4</v>
-      </c>
-      <c r="E43" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="72">
-        <v>42</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50">
-        <v>43</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50">
-        <v>44</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="51">
-        <v>4</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50">
-        <v>45</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50">
-        <v>46</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50">
-        <v>47</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50">
-        <v>48</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62">
-        <v>49</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="63">
-        <v>5</v>
-      </c>
-      <c r="E51" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="F51" s="83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="72">
-        <v>50</v>
-      </c>
-      <c r="C52" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" s="80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50">
-        <v>51</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50">
-        <v>52</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50">
-        <v>53</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50">
-        <v>54</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="51">
-        <v>5</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50">
-        <v>55</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="51">
-        <v>5</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50">
-        <v>56</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="51">
-        <v>4</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="F58" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50">
-        <v>57</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
-      <c r="B60" s="62">
-        <v>58</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60" s="81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="72">
-        <v>59</v>
-      </c>
-      <c r="C61" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50">
-        <v>60</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="51">
-        <v>4</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50">
-        <v>61</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="51">
-        <v>4</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50">
-        <v>62</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50">
-        <v>63</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="51">
-        <v>4</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50">
-        <v>64</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50">
-        <v>65</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="61"/>
-      <c r="B68" s="62">
-        <v>66</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="63">
-        <v>5</v>
-      </c>
-      <c r="E68" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="F68" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="72">
-        <v>67</v>
-      </c>
-      <c r="C69" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50">
-        <v>68</v>
-      </c>
-      <c r="C70" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F70" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50">
-        <v>69</v>
-      </c>
-      <c r="C71" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="51">
-        <v>4</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F71" s="53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50">
-        <v>70</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="51">
-        <v>4</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F72" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50">
-        <v>71</v>
-      </c>
-      <c r="C73" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50">
-        <v>72</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="51">
-        <v>2</v>
-      </c>
-      <c r="E74" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F74" s="53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
-      <c r="B75" s="62">
-        <v>73</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="63">
-        <v>2</v>
-      </c>
-      <c r="E75" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" s="81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="72">
-        <v>74</v>
-      </c>
-      <c r="C76" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="73">
-        <v>1</v>
-      </c>
-      <c r="E76" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="F76" s="80" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50">
-        <v>75</v>
-      </c>
-      <c r="C77" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="51">
-        <v>5</v>
-      </c>
-      <c r="E77" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="F77" s="53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50">
-        <v>76</v>
-      </c>
-      <c r="C78" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50">
-        <v>77</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="F79" s="53" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50">
-        <v>78</v>
-      </c>
-      <c r="C80" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50">
-        <v>79</v>
-      </c>
-      <c r="C81" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50">
-        <v>80</v>
-      </c>
-      <c r="C82" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50">
-        <v>81</v>
-      </c>
-      <c r="C83" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="51">
-        <v>5</v>
-      </c>
-      <c r="E83" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="F83" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="50">
-        <v>82</v>
-      </c>
-      <c r="C84" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F84" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50">
-        <v>83</v>
-      </c>
-      <c r="C85" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="F85" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50">
-        <v>84</v>
-      </c>
-      <c r="C86" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="50">
-        <v>85</v>
-      </c>
-      <c r="C87" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="F87" s="53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="50">
-        <v>86</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="F88" s="53" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
-      <c r="B89" s="62">
-        <v>87</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="63">
-        <v>3</v>
-      </c>
-      <c r="E89" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F89" s="81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="72">
-        <v>88</v>
-      </c>
-      <c r="C90" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="F90" s="75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
-      <c r="B91" s="50">
-        <v>89</v>
-      </c>
-      <c r="C91" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="54">
-        <v>5</v>
-      </c>
-      <c r="E91" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="F91" s="55" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="60"/>
-      <c r="B92" s="50">
-        <v>90</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="F92" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="60"/>
-      <c r="B93" s="50">
-        <v>91</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="54">
-        <v>4</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="F93" s="55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
-      <c r="B94" s="50">
-        <v>92</v>
-      </c>
-      <c r="C94" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="F94" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
-      <c r="B95" s="62">
-        <v>93</v>
-      </c>
-      <c r="C95" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F95" s="65" t="s">
+      <c r="E101" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" s="72">
-        <v>94</v>
-      </c>
-      <c r="C96" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="73">
-        <v>4</v>
-      </c>
-      <c r="E96" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="F96" s="75" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="50">
-        <v>95</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="50">
-        <v>96</v>
-      </c>
-      <c r="C98" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="51">
-        <v>5</v>
-      </c>
-      <c r="E98" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="F98" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
-      <c r="B99" s="62">
-        <v>97</v>
-      </c>
-      <c r="C99" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="65" t="s">
-        <v>289</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:F99" xr:uid="{2035B645-7B6F-485F-9266-35A4E14D27BF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F99">
-      <sortCondition ref="B2:B99"/>
+  <autoFilter ref="B2:F101" xr:uid="{2035B645-7B6F-485F-9266-35A4E14D27BF}">
+    <sortState ref="B3:F101">
+      <sortCondition ref="B2:B101"/>
     </sortState>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A91"/>
+    <mergeCell ref="A92:A97"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A53"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F39" r:id="rId1" xr:uid="{A8F75F2B-63F4-444F-8A5F-64FB3BA2F80A}"/>
-    <hyperlink ref="F38" r:id="rId2" xr:uid="{C37BF3FE-8C8B-471E-9501-ADC8A1432A63}"/>
-    <hyperlink ref="F81" r:id="rId3" xr:uid="{32F85734-0E99-4921-BB3A-D7C3FF139A90}"/>
-    <hyperlink ref="F85" r:id="rId4" xr:uid="{27855449-410F-4794-993C-4DC41443CC32}"/>
+    <hyperlink ref="F41" r:id="rId1" xr:uid="{A8F75F2B-63F4-444F-8A5F-64FB3BA2F80A}"/>
+    <hyperlink ref="F40" r:id="rId2" xr:uid="{C37BF3FE-8C8B-471E-9501-ADC8A1432A63}"/>
+    <hyperlink ref="F83" r:id="rId3" xr:uid="{32F85734-0E99-4921-BB3A-D7C3FF139A90}"/>
+    <hyperlink ref="F87" r:id="rId4" xr:uid="{27855449-410F-4794-993C-4DC41443CC32}"/>
     <hyperlink ref="F10" r:id="rId5" xr:uid="{DCE3D74B-5D38-44B2-A540-F3F4AB6D444B}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4406,510 +4976,877 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79AE8FF-5CBD-4901-A97B-1C83E0B5C4F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="E9" s="78">
+        <v>22.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="2">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2">
+        <v>600</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D9CDE-2ACC-4300-AB58-DC0F6A745C84}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B73E5-2454-4E03-A9F5-05629A00F214}">
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="90" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B1" s="104" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="105"/>
+      <c r="G1" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="104"/>
+      <c r="I1" s="102" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="88">
+        <v>160</v>
+      </c>
+      <c r="F3" s="88">
+        <v>1600</v>
+      </c>
+      <c r="G3" s="86">
+        <v>10</v>
+      </c>
+      <c r="H3" s="86">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="103"/>
+      <c r="B4" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="88">
+        <v>120</v>
+      </c>
+      <c r="F4" s="88">
+        <v>9000</v>
+      </c>
+      <c r="G4" s="86">
+        <v>10</v>
+      </c>
+      <c r="H4" s="86">
+        <v>18</v>
+      </c>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="103"/>
+      <c r="B5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="103"/>
+      <c r="B6" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="103"/>
+      <c r="B7" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
+      <c r="B10" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
+      <c r="B11" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="103"/>
+      <c r="B12" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="103"/>
+      <c r="B13" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="H13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="I13" s="46"/>
+      <c r="K13" s="82"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="103"/>
+      <c r="B14" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="H14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
+      <c r="B15" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="H15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="I15" s="46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="103"/>
+      <c r="B16" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="H16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
+      <c r="B17" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="103"/>
+      <c r="B21" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="103"/>
+      <c r="B22" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="103"/>
+      <c r="B23" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="103"/>
+      <c r="B24" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="103"/>
+      <c r="B25" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="103"/>
+      <c r="B28" s="85" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="H28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="I28" s="46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="103"/>
+      <c r="B30" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="103"/>
+      <c r="B34" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="H34" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="103"/>
+      <c r="B35" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="103"/>
+      <c r="B36" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="103"/>
+      <c r="B38" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="103"/>
+      <c r="B39" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="103"/>
+      <c r="B40" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="103"/>
+      <c r="B41" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="103"/>
+      <c r="B42" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E28" xr:uid="{2D04EDC7-76D8-4E49-99EE-A28360DC2B16}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
-      <sortCondition ref="A2:A28"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="12">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4969,10 +5906,10 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="106"/>
       <c r="I3" s="29" t="s">
         <v>152</v>
       </c>
@@ -5083,7 +6020,7 @@
         <v>382</v>
       </c>
       <c r="G5" s="8">
-        <f>SQRT(F5^2+E5^2)</f>
+        <f t="shared" ref="G5:G10" si="0">SQRT(F5^2+E5^2)</f>
         <v>714.66075868204769</v>
       </c>
       <c r="I5" s="35" t="s">
@@ -5140,7 +6077,7 @@
         <v>387</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:G10" si="0">SQRT(F6^2+E6^2)</f>
+        <f t="shared" si="0"/>
         <v>726.63195635754971</v>
       </c>
     </row>
@@ -5465,7 +6402,7 @@
         <v>339</v>
       </c>
       <c r="E14" s="13">
-        <f>SQRT(D14^2+C14^2)</f>
+        <f t="shared" ref="E14:E19" si="1">SQRT(D14^2+C14^2)</f>
         <v>695.24815713527789</v>
       </c>
       <c r="G14" s="8"/>
@@ -5481,7 +6418,7 @@
         <v>362</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E19" si="1">SQRT(D15^2+C15^2)</f>
+        <f t="shared" si="1"/>
         <v>723.13207645629996</v>
       </c>
       <c r="G15" s="8"/>
@@ -5685,7 +6622,7 @@
         <v>398</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:E27" si="2">SQRT(D24^2+C24^2)</f>
+        <f>SQRT(D24^2+C24^2)</f>
         <v>719.16966009419502</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -5718,7 +6655,7 @@
         <v>407</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="2"/>
+        <f>SQRT(D25^2+C25^2)</f>
         <v>738.31226456019272</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -5751,7 +6688,7 @@
         <v>415</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="2"/>
+        <f>SQRT(D26^2+C26^2)</f>
         <v>756.07473175606128</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -5784,7 +6721,7 @@
         <v>425</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="2"/>
+        <f>SQRT(D27^2+C27^2)</f>
         <v>772.43122671212609</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -5925,7 +6862,7 @@
         <v>396</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ref="E32:E35" si="3">SQRT(D32^2+C32^2)</f>
+        <f>SQRT(D32^2+C32^2)</f>
         <v>700.64256222413439</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -5958,7 +6895,7 @@
         <v>404</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="3"/>
+        <f>SQRT(D33^2+C33^2)</f>
         <v>724.99655171593747</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -5991,7 +6928,7 @@
         <v>412</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="3"/>
+        <f>SQRT(D34^2+C34^2)</f>
         <v>749.4131037018235</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -6024,26 +6961,26 @@
         <v>420</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="3"/>
+        <f>SQRT(D35^2+C35^2)</f>
         <v>773.88629655783416</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="38">
-        <f t="shared" ref="I35:L35" si="4">I20+I21+I25+I27+4*I28</f>
+        <f>I20+I21+I25+I27+4*I28</f>
         <v>3458</v>
       </c>
       <c r="J35" s="38">
-        <f t="shared" si="4"/>
+        <f>J20+J21+J25+J27+4*J28</f>
         <v>3567</v>
       </c>
       <c r="K35" s="38">
-        <f t="shared" si="4"/>
+        <f>K20+K21+K25+K27+4*K28</f>
         <v>3673</v>
       </c>
       <c r="L35" s="38">
-        <f t="shared" si="4"/>
+        <f>L20+L21+L25+L27+4*L28</f>
         <v>3781</v>
       </c>
       <c r="M35" s="38">
@@ -6159,7 +7096,7 @@
         <v>406</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" ref="E40:E43" si="5">SQRT(D40^2+C40^2)</f>
+        <f>SQRT(D40^2+C40^2)</f>
         <v>674.00296735251845</v>
       </c>
       <c r="G40" s="16" t="s">
@@ -6195,7 +7132,7 @@
         <v>410</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="5"/>
+        <f>SQRT(D41^2+C41^2)</f>
         <v>690.82269794788874</v>
       </c>
       <c r="G41" s="16" t="s">
@@ -6231,7 +7168,7 @@
         <v>416</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="5"/>
+        <f>SQRT(D42^2+C42^2)</f>
         <v>717.83075999848324</v>
       </c>
       <c r="G42" s="16" t="s">
@@ -6267,7 +7204,7 @@
         <v>423</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="5"/>
+        <f>SQRT(D43^2+C43^2)</f>
         <v>744.7805045783623</v>
       </c>
       <c r="G43" s="16" t="s">
@@ -6423,7 +7360,7 @@
         <v>388</v>
       </c>
       <c r="E48" s="13">
-        <f t="shared" ref="E48:E49" si="6">SQRT(D48^2+C48^2)</f>
+        <f>SQRT(D48^2+C48^2)</f>
         <v>676.35789342625401</v>
       </c>
     </row>
@@ -6438,7 +7375,7 @@
         <v>396</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="6"/>
+        <f>SQRT(D49^2+C49^2)</f>
         <v>700.64256222413439</v>
       </c>
       <c r="H49" t="s">
@@ -7331,7 +8268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B807A8EB-B37E-4DB6-9E82-310FC5E255F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB4BB1-0EE7-4008-86E8-18A55D8A6861}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7343,42 +8280,233 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C68866-5C55-48C1-9D3E-E5C8B1A0C691}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D196F-9612-46E0-A260-5D2B5930FCF0}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C92A539D-3251-44AA-8618-082B1A519A55}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{572C21C3-60AC-4A53-9521-7EABACFAF55B}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{6F6DF46F-52B0-492C-9238-F44E3A7D5B1B}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{A16E0E8C-DD65-49DB-8AF8-A4606696DD9E}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{3E48EC72-DCE5-46C3-AA87-CFBB6FDBE8F5}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{7342AE03-462A-4128-B763-9C0A5D01304D}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{3CB774B9-25DD-43BE-99B8-D5E5796FB9E6}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{38403F54-DBEB-439B-8A70-97AC38B89676}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{D808A992-E3CE-43A5-8559-59744915E441}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB4BB1-0EE7-4008-86E8-18A55D8A6861}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7A008A-804F-4C39-A6D2-7C21FCFE4ACD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7A008A-804F-4C39-A6D2-7C21FCFE4ACD}">
-  <dimension ref="A1:AA2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
     <col min="3" max="8" width="7.140625" style="25" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="10" style="25" customWidth="1"/>
@@ -7395,113 +8523,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>237</v>
-      </c>
       <c r="C2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="J2" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="40" t="s">
+      <c r="M2" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>256</v>
-      </c>
       <c r="Q2" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" s="40" t="s">
         <v>252</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>253</v>
       </c>
       <c r="V2" s="40" t="s">
         <v>235</v>
@@ -7518,10 +8646,131 @@
       <c r="Z2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="44"/>
+      <c r="AA2" s="107"/>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="109"/>
+      <c r="B4" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
+      <c r="B10" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AA1:AA2"/>
@@ -7532,5 +8781,505 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D9CDE-2ACC-4300-AB58-DC0F6A745C84}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E28" xr:uid="{2D04EDC7-76D8-4E49-99EE-A28360DC2B16}">
+    <sortState ref="A3:E28">
+      <sortCondition ref="A2:A28"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clutter/Product Specs.xlsx
+++ b/clutter/Product Specs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dos\FYP Adjustabike\clutter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9894E95D-36A9-4EB3-9D7D-2E045579F176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{0B1A8BE2-F423-4BD1-B9C4-448950125A23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bike spec" sheetId="1" r:id="rId1"/>
@@ -27,8 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'kit spec'!$A$2:$E$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'bike spec'!$B$1:$L$128</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="469">
   <si>
     <t>D/W</t>
   </si>
@@ -1616,16 +1613,28 @@
   <si>
     <t>48mm aluminium</t>
   </si>
+  <si>
+    <t>sandwich bike</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>open source</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,6 +1717,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1784,16 +1801,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1983,11 +2000,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2177,22 +2217,10 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2206,6 +2234,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2225,17 +2265,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2272,7 +2336,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B2FE18-71EC-4F79-A467-8363C7D486DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B2FE18-71EC-4F79-A467-8363C7D486DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2365,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2331,7 +2395,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="bike diagram">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03519729-3C36-44AD-A73C-A86DBB6CE389}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03519729-3C36-44AD-A73C-A86DBB6CE389}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2426,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2392,7 +2456,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="Escape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D88EE2-0B66-462D-ABE4-A3C7B3808FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83D88EE2-0B66-462D-ABE4-A3C7B3808FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2502,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2468,7 +2532,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F367959-41F7-4540-8262-6A5178F8D7BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F367959-41F7-4540-8262-6A5178F8D7BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2571,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2537,7 +2601,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="bike diagram">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035C2023-DA38-426E-BF74-2CE487594DDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{035C2023-DA38-426E-BF74-2CE487594DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2632,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2598,7 +2662,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="Fathom 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CADC83-E788-4428-9202-238773DAF98C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54CADC83-E788-4428-9202-238773DAF98C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2708,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2674,7 +2738,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="bike diagram">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC0E8CA-D594-4EC0-A6CD-CF65B64E049B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BC0E8CA-D594-4EC0-A6CD-CF65B64E049B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2769,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2735,7 +2799,7 @@
         <xdr:cNvPr id="10" name="Picture 9" descr="Contend 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A175A608-3176-4425-AB0C-47004C247B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A175A608-3176-4425-AB0C-47004C247B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2838,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2832,7 +2896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2884,7 +2948,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3078,43 +3142,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78235AD6-7E08-4F88-97EC-47267900DBCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
@@ -3134,8 +3198,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="91" t="s">
         <v>304</v>
       </c>
       <c r="B3" s="63">
@@ -3154,8 +3218,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="92"/>
       <c r="B4" s="44">
         <v>2</v>
       </c>
@@ -3172,8 +3236,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="92"/>
       <c r="B5" s="44">
         <v>3</v>
       </c>
@@ -3190,8 +3254,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="92"/>
       <c r="B6" s="44">
         <v>4</v>
       </c>
@@ -3208,8 +3272,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="92"/>
       <c r="B7" s="44">
         <v>5</v>
       </c>
@@ -3226,8 +3290,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="92"/>
       <c r="B8" s="44">
         <v>6</v>
       </c>
@@ -3244,8 +3308,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="92"/>
       <c r="B9" s="44">
         <v>7</v>
       </c>
@@ -3262,8 +3326,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="92"/>
       <c r="B10" s="44">
         <v>8</v>
       </c>
@@ -3280,8 +3344,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="92"/>
       <c r="B11" s="44">
         <v>9</v>
       </c>
@@ -3298,8 +3362,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="92"/>
       <c r="B12" s="44">
         <v>10</v>
       </c>
@@ -3316,8 +3380,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+    <row r="13" spans="1:6" ht="28">
+      <c r="A13" s="92"/>
       <c r="B13" s="44">
         <v>11</v>
       </c>
@@ -3334,8 +3398,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="100"/>
       <c r="B14" s="73">
         <v>12</v>
       </c>
@@ -3352,8 +3416,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="100"/>
       <c r="B15" s="44">
         <v>13</v>
       </c>
@@ -3370,8 +3434,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
+    <row r="16" spans="1:6" ht="29" thickBot="1">
+      <c r="A16" s="93"/>
       <c r="B16" s="44">
         <v>14</v>
       </c>
@@ -3388,8 +3452,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="91" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="63">
@@ -3408,8 +3472,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="92"/>
       <c r="B18" s="44">
         <v>16</v>
       </c>
@@ -3426,8 +3490,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="92"/>
       <c r="B19" s="44">
         <v>17</v>
       </c>
@@ -3444,8 +3508,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="92"/>
       <c r="B20" s="44">
         <v>18</v>
       </c>
@@ -3462,8 +3526,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="92"/>
       <c r="B21" s="44">
         <v>19</v>
       </c>
@@ -3480,8 +3544,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="92"/>
       <c r="B22" s="44">
         <v>20</v>
       </c>
@@ -3498,8 +3562,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="92"/>
       <c r="B23" s="44">
         <v>21</v>
       </c>
@@ -3516,8 +3580,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="92"/>
       <c r="B24" s="44">
         <v>22</v>
       </c>
@@ -3534,8 +3598,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="92"/>
       <c r="B25" s="44">
         <v>23</v>
       </c>
@@ -3552,8 +3616,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="92"/>
       <c r="B26" s="44">
         <v>24</v>
       </c>
@@ -3570,8 +3634,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="92"/>
       <c r="B27" s="44">
         <v>25</v>
       </c>
@@ -3588,8 +3652,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
+    <row r="28" spans="1:6" ht="28">
+      <c r="A28" s="92"/>
       <c r="B28" s="44">
         <v>26</v>
       </c>
@@ -3606,8 +3670,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="92"/>
       <c r="B29" s="44">
         <v>27</v>
       </c>
@@ -3624,8 +3688,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="92"/>
       <c r="B30" s="44">
         <v>28</v>
       </c>
@@ -3642,8 +3706,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="92"/>
       <c r="B31" s="44">
         <v>29</v>
       </c>
@@ -3660,8 +3724,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+    <row r="32" spans="1:6" ht="42">
+      <c r="A32" s="92"/>
       <c r="B32" s="44">
         <v>30</v>
       </c>
@@ -3678,8 +3742,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:6" ht="42">
+      <c r="A33" s="92"/>
       <c r="B33" s="44">
         <v>31</v>
       </c>
@@ -3696,8 +3760,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
+    <row r="34" spans="1:6" ht="42">
+      <c r="A34" s="92"/>
       <c r="B34" s="44">
         <v>32</v>
       </c>
@@ -3714,8 +3778,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
+    <row r="35" spans="1:6" ht="28">
+      <c r="A35" s="92"/>
       <c r="B35" s="44">
         <v>33</v>
       </c>
@@ -3732,8 +3796,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="93"/>
       <c r="B36" s="54">
         <v>34</v>
       </c>
@@ -3750,8 +3814,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="91" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="63">
@@ -3770,8 +3834,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
+    <row r="38" spans="1:6" ht="28">
+      <c r="A38" s="92"/>
       <c r="B38" s="44">
         <v>36</v>
       </c>
@@ -3788,8 +3852,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="92"/>
       <c r="B39" s="44">
         <v>37</v>
       </c>
@@ -3806,8 +3870,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="92"/>
       <c r="B40" s="44">
         <v>38</v>
       </c>
@@ -3824,8 +3888,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="92"/>
       <c r="B41" s="44">
         <v>39</v>
       </c>
@@ -3842,8 +3906,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="92"/>
       <c r="B42" s="44">
         <v>40</v>
       </c>
@@ -3860,8 +3924,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+    <row r="43" spans="1:6" ht="28">
+      <c r="A43" s="92"/>
       <c r="B43" s="44">
         <v>41</v>
       </c>
@@ -3878,8 +3942,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
+    <row r="44" spans="1:6">
+      <c r="A44" s="92"/>
       <c r="B44" s="44">
         <v>42</v>
       </c>
@@ -3896,8 +3960,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
+    <row r="45" spans="1:6" ht="43" thickBot="1">
+      <c r="A45" s="93"/>
       <c r="B45" s="54">
         <v>43</v>
       </c>
@@ -3914,8 +3978,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="91" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="63">
@@ -3934,8 +3998,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
+    <row r="47" spans="1:6">
+      <c r="A47" s="92"/>
       <c r="B47" s="44">
         <v>45</v>
       </c>
@@ -3952,8 +4016,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
+    <row r="48" spans="1:6" ht="28">
+      <c r="A48" s="92"/>
       <c r="B48" s="44">
         <v>46</v>
       </c>
@@ -3970,8 +4034,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="92"/>
       <c r="B49" s="44">
         <v>47</v>
       </c>
@@ -3988,8 +4052,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="92"/>
       <c r="B50" s="44">
         <v>48</v>
       </c>
@@ -4006,8 +4070,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
+    <row r="51" spans="1:6" ht="28">
+      <c r="A51" s="92"/>
       <c r="B51" s="44">
         <v>49</v>
       </c>
@@ -4024,8 +4088,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="92"/>
       <c r="B52" s="44">
         <v>50</v>
       </c>
@@ -4042,8 +4106,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="97"/>
+    <row r="53" spans="1:6" ht="29" thickBot="1">
+      <c r="A53" s="93"/>
       <c r="B53" s="54">
         <v>51</v>
       </c>
@@ -4060,8 +4124,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="63">
@@ -4080,8 +4144,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="92"/>
       <c r="B55" s="44">
         <v>53</v>
       </c>
@@ -4098,8 +4162,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="92"/>
       <c r="B56" s="44">
         <v>54</v>
       </c>
@@ -4116,8 +4180,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
+    <row r="57" spans="1:6" ht="28">
+      <c r="A57" s="92"/>
       <c r="B57" s="44">
         <v>55</v>
       </c>
@@ -4134,8 +4198,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="92"/>
       <c r="B58" s="44">
         <v>56</v>
       </c>
@@ -4152,8 +4216,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="92"/>
       <c r="B59" s="44">
         <v>57</v>
       </c>
@@ -4170,8 +4234,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="92"/>
       <c r="B60" s="44">
         <v>58</v>
       </c>
@@ -4188,8 +4252,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="92"/>
       <c r="B61" s="44">
         <v>59</v>
       </c>
@@ -4206,8 +4270,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="97"/>
+    <row r="62" spans="1:6" ht="29" thickBot="1">
+      <c r="A62" s="93"/>
       <c r="B62" s="54">
         <v>60</v>
       </c>
@@ -4224,8 +4288,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="91" t="s">
         <v>159</v>
       </c>
       <c r="B63" s="63">
@@ -4244,8 +4308,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="92"/>
       <c r="B64" s="44">
         <v>62</v>
       </c>
@@ -4262,8 +4326,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
+    <row r="65" spans="1:6" ht="28">
+      <c r="A65" s="92"/>
       <c r="B65" s="44">
         <v>63</v>
       </c>
@@ -4280,8 +4344,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
+    <row r="66" spans="1:6" ht="28">
+      <c r="A66" s="92"/>
       <c r="B66" s="44">
         <v>64</v>
       </c>
@@ -4298,8 +4362,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
+    <row r="67" spans="1:6">
+      <c r="A67" s="92"/>
       <c r="B67" s="44">
         <v>65</v>
       </c>
@@ -4316,8 +4380,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
+    <row r="68" spans="1:6" ht="28">
+      <c r="A68" s="92"/>
       <c r="B68" s="44">
         <v>66</v>
       </c>
@@ -4334,8 +4398,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
+    <row r="69" spans="1:6" ht="28">
+      <c r="A69" s="92"/>
       <c r="B69" s="44">
         <v>67</v>
       </c>
@@ -4352,8 +4416,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="97"/>
+    <row r="70" spans="1:6" ht="15" thickBot="1">
+      <c r="A70" s="93"/>
       <c r="B70" s="54">
         <v>68</v>
       </c>
@@ -4370,8 +4434,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="63">
@@ -4390,8 +4454,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
+    <row r="72" spans="1:6">
+      <c r="A72" s="92"/>
       <c r="B72" s="44">
         <v>70</v>
       </c>
@@ -4408,8 +4472,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
+    <row r="73" spans="1:6">
+      <c r="A73" s="92"/>
       <c r="B73" s="44">
         <v>71</v>
       </c>
@@ -4426,8 +4490,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
+    <row r="74" spans="1:6">
+      <c r="A74" s="92"/>
       <c r="B74" s="44">
         <v>72</v>
       </c>
@@ -4444,8 +4508,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
+    <row r="75" spans="1:6">
+      <c r="A75" s="92"/>
       <c r="B75" s="44">
         <v>73</v>
       </c>
@@ -4462,8 +4526,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="95"/>
+    <row r="76" spans="1:6">
+      <c r="A76" s="92"/>
       <c r="B76" s="44">
         <v>74</v>
       </c>
@@ -4480,8 +4544,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="97"/>
+    <row r="77" spans="1:6" ht="15" thickBot="1">
+      <c r="A77" s="93"/>
       <c r="B77" s="54">
         <v>75</v>
       </c>
@@ -4498,8 +4562,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="94" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" s="91" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="63">
@@ -4518,8 +4582,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="95"/>
+    <row r="79" spans="1:6">
+      <c r="A79" s="92"/>
       <c r="B79" s="44">
         <v>77</v>
       </c>
@@ -4536,8 +4600,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="95"/>
+    <row r="80" spans="1:6">
+      <c r="A80" s="92"/>
       <c r="B80" s="44">
         <v>78</v>
       </c>
@@ -4554,8 +4618,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="95"/>
+    <row r="81" spans="1:6" ht="28">
+      <c r="A81" s="92"/>
       <c r="B81" s="44">
         <v>79</v>
       </c>
@@ -4572,8 +4636,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
+    <row r="82" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A82" s="92"/>
       <c r="B82" s="44">
         <v>80</v>
       </c>
@@ -4590,8 +4654,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="95"/>
+    <row r="83" spans="1:6">
+      <c r="A83" s="92"/>
       <c r="B83" s="44">
         <v>81</v>
       </c>
@@ -4608,8 +4672,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
+    <row r="84" spans="1:6">
+      <c r="A84" s="92"/>
       <c r="B84" s="44">
         <v>82</v>
       </c>
@@ -4626,8 +4690,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
+    <row r="85" spans="1:6" ht="28">
+      <c r="A85" s="92"/>
       <c r="B85" s="44">
         <v>83</v>
       </c>
@@ -4644,8 +4708,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
+    <row r="86" spans="1:6" ht="28">
+      <c r="A86" s="92"/>
       <c r="B86" s="44">
         <v>84</v>
       </c>
@@ -4662,8 +4726,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
+    <row r="87" spans="1:6" ht="28">
+      <c r="A87" s="92"/>
       <c r="B87" s="44">
         <v>85</v>
       </c>
@@ -4680,8 +4744,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
+    <row r="88" spans="1:6" ht="28">
+      <c r="A88" s="92"/>
       <c r="B88" s="44">
         <v>86</v>
       </c>
@@ -4698,8 +4762,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
+    <row r="89" spans="1:6">
+      <c r="A89" s="92"/>
       <c r="B89" s="44">
         <v>87</v>
       </c>
@@ -4716,8 +4780,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="95"/>
+    <row r="90" spans="1:6">
+      <c r="A90" s="92"/>
       <c r="B90" s="44">
         <v>88</v>
       </c>
@@ -4734,8 +4798,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="97"/>
+    <row r="91" spans="1:6" ht="29" thickBot="1">
+      <c r="A91" s="93"/>
       <c r="B91" s="54">
         <v>89</v>
       </c>
@@ -4752,8 +4816,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="98" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="63">
@@ -4772,8 +4836,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
+    <row r="93" spans="1:6">
+      <c r="A93" s="95"/>
       <c r="B93" s="44">
         <v>91</v>
       </c>
@@ -4790,8 +4854,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="99"/>
+    <row r="94" spans="1:6">
+      <c r="A94" s="95"/>
       <c r="B94" s="44">
         <v>92</v>
       </c>
@@ -4808,8 +4872,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="99"/>
+    <row r="95" spans="1:6" ht="28">
+      <c r="A95" s="95"/>
       <c r="B95" s="44">
         <v>93</v>
       </c>
@@ -4826,8 +4890,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="99"/>
+    <row r="96" spans="1:6">
+      <c r="A96" s="95"/>
       <c r="B96" s="44">
         <v>94</v>
       </c>
@@ -4844,8 +4908,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="100"/>
+    <row r="97" spans="1:6" ht="15" thickBot="1">
+      <c r="A97" s="96"/>
       <c r="B97" s="54">
         <v>95</v>
       </c>
@@ -4862,8 +4926,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="s">
+    <row r="98" spans="1:6">
+      <c r="A98" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="63">
@@ -4882,8 +4946,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
+    <row r="99" spans="1:6">
+      <c r="A99" s="92"/>
       <c r="B99" s="44">
         <v>97</v>
       </c>
@@ -4900,8 +4964,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
+    <row r="100" spans="1:6">
+      <c r="A100" s="92"/>
       <c r="B100" s="44">
         <v>98</v>
       </c>
@@ -4918,8 +4982,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="97"/>
+    <row r="101" spans="1:6" ht="15" thickBot="1">
+      <c r="A101" s="93"/>
       <c r="B101" s="54">
         <v>99</v>
       </c>
@@ -4937,45 +5001,50 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F101" xr:uid="{2035B645-7B6F-485F-9266-35A4E14D27BF}">
+  <autoFilter ref="B2:F101">
     <sortState ref="B3:F101">
       <sortCondition ref="B2:B101"/>
     </sortState>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A53"/>
     <mergeCell ref="A98:A101"/>
     <mergeCell ref="A54:A62"/>
     <mergeCell ref="A63:A70"/>
     <mergeCell ref="A71:A77"/>
     <mergeCell ref="A78:A91"/>
     <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A46:A53"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F41" r:id="rId1" xr:uid="{A8F75F2B-63F4-444F-8A5F-64FB3BA2F80A}"/>
-    <hyperlink ref="F40" r:id="rId2" xr:uid="{C37BF3FE-8C8B-471E-9501-ADC8A1432A63}"/>
-    <hyperlink ref="F83" r:id="rId3" xr:uid="{32F85734-0E99-4921-BB3A-D7C3FF139A90}"/>
-    <hyperlink ref="F87" r:id="rId4" xr:uid="{27855449-410F-4794-993C-4DC41443CC32}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{DCE3D74B-5D38-44B2-A540-F3F4AB6D444B}"/>
+    <hyperlink ref="F41" r:id="rId1"/>
+    <hyperlink ref="F40" r:id="rId2"/>
+    <hyperlink ref="F83" r:id="rId3"/>
+    <hyperlink ref="F87" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="128" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79AE8FF-5CBD-4901-A97B-1C83E0B5C4F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4983,33 +5052,33 @@
       <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1">
       <c r="B1" s="79" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="77" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="77" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>318</v>
       </c>
@@ -5028,7 +5097,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>330</v>
       </c>
@@ -5047,7 +5116,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>321</v>
       </c>
@@ -5066,7 +5135,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>320</v>
       </c>
@@ -5089,7 +5158,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="56">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
@@ -5112,7 +5181,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>325</v>
       </c>
@@ -5135,7 +5204,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>326</v>
       </c>
@@ -5158,7 +5227,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="56">
       <c r="A11" s="1" t="s">
         <v>319</v>
       </c>
@@ -5188,29 +5257,34 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B73E5-2454-4E03-A9F5-05629A00F214}">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="90" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="83" customFormat="1">
       <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
@@ -5235,7 +5309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="42" customFormat="1">
       <c r="A2" s="104"/>
       <c r="B2" s="104"/>
       <c r="C2" s="104"/>
@@ -5254,7 +5328,7 @@
       </c>
       <c r="I2" s="102"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="103" t="s">
         <v>394</v>
       </c>
@@ -5277,7 +5351,7 @@
       </c>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="103"/>
       <c r="B4" s="44" t="s">
         <v>398</v>
@@ -5297,8 +5371,32 @@
         <v>18</v>
       </c>
       <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>394</v>
+      </c>
+      <c r="N4" t="s">
+        <v>395</v>
+      </c>
+      <c r="O4" t="s">
+        <v>396</v>
+      </c>
+      <c r="P4" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>397</v>
+      </c>
+      <c r="R4" t="s">
+        <v>466</v>
+      </c>
+      <c r="S4" t="s">
+        <v>467</v>
+      </c>
+      <c r="T4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="103"/>
       <c r="B5" s="44" t="s">
         <v>153</v>
@@ -5310,8 +5408,23 @@
       <c r="G5" s="86"/>
       <c r="H5" s="86"/>
       <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="103"/>
       <c r="B6" s="44" t="s">
         <v>399</v>
@@ -5323,8 +5436,23 @@
       <c r="G6" s="86"/>
       <c r="H6" s="86"/>
       <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="103"/>
       <c r="B7" s="44" t="s">
         <v>400</v>
@@ -5336,8 +5464,23 @@
       <c r="G7" s="86"/>
       <c r="H7" s="86"/>
       <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="103"/>
       <c r="B8" s="44" t="s">
         <v>401</v>
@@ -5349,8 +5492,23 @@
       <c r="G8" s="86"/>
       <c r="H8" s="86"/>
       <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="103" t="s">
         <v>395</v>
       </c>
@@ -5364,8 +5522,23 @@
       <c r="G9" s="86"/>
       <c r="H9" s="86"/>
       <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="103"/>
       <c r="B10" s="44" t="s">
         <v>409</v>
@@ -5377,8 +5550,23 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="103"/>
       <c r="B11" s="44" t="s">
         <v>386</v>
@@ -5390,8 +5578,20 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="P11" s="110" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q11" s="85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="103"/>
       <c r="B12" s="44" t="s">
         <v>415</v>
@@ -5403,8 +5603,17 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="103"/>
       <c r="B13" s="44" t="s">
         <v>410</v>
@@ -5421,8 +5630,14 @@
       </c>
       <c r="I13" s="46"/>
       <c r="K13" s="82"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="103"/>
       <c r="B14" s="44" t="s">
         <v>411</v>
@@ -5438,8 +5653,11 @@
         <v>20</v>
       </c>
       <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="103"/>
       <c r="B15" s="44" t="s">
         <v>413</v>
@@ -5457,8 +5675,11 @@
       <c r="I15" s="46" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" s="85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="103"/>
       <c r="B16" s="44" t="s">
         <v>416</v>
@@ -5475,7 +5696,7 @@
       </c>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="103"/>
       <c r="B17" s="44" t="s">
         <v>417</v>
@@ -5488,7 +5709,7 @@
       <c r="H17" s="44"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="103" t="s">
         <v>396</v>
       </c>
@@ -5503,7 +5724,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="103"/>
       <c r="B19" s="44" t="s">
         <v>418</v>
@@ -5516,7 +5737,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="103"/>
       <c r="B20" s="44" t="s">
         <v>419</v>
@@ -5529,7 +5750,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="103"/>
       <c r="B21" s="44" t="s">
         <v>420</v>
@@ -5542,7 +5763,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="103"/>
       <c r="B22" s="44" t="s">
         <v>421</v>
@@ -5555,7 +5776,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="103"/>
       <c r="B23" s="44" t="s">
         <v>422</v>
@@ -5568,7 +5789,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="103"/>
       <c r="B24" s="44" t="s">
         <v>423</v>
@@ -5581,7 +5802,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="103"/>
       <c r="B25" s="44" t="s">
         <v>424</v>
@@ -5594,7 +5815,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="103"/>
       <c r="B26" s="44" t="s">
         <v>425</v>
@@ -5607,7 +5828,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="103"/>
       <c r="B27" s="44" t="s">
         <v>426</v>
@@ -5620,7 +5841,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="28">
       <c r="A28" s="103"/>
       <c r="B28" s="85" t="s">
         <v>443</v>
@@ -5639,7 +5860,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="103" t="s">
         <v>427</v>
       </c>
@@ -5656,7 +5877,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="103"/>
       <c r="B30" s="44" t="s">
         <v>434</v>
@@ -5671,7 +5892,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="103"/>
       <c r="B31" s="44" t="s">
         <v>428</v>
@@ -5684,7 +5905,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="103"/>
       <c r="B32" s="44" t="s">
         <v>429</v>
@@ -5697,7 +5918,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="103"/>
       <c r="B33" s="44" t="s">
         <v>430</v>
@@ -5710,7 +5931,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="103"/>
       <c r="B34" s="44" t="s">
         <v>431</v>
@@ -5727,7 +5948,7 @@
       </c>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28">
       <c r="A35" s="103"/>
       <c r="B35" s="46" t="s">
         <v>432</v>
@@ -5740,7 +5961,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="103"/>
       <c r="B36" s="44" t="s">
         <v>436</v>
@@ -5753,7 +5974,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="103" t="s">
         <v>397</v>
       </c>
@@ -5768,7 +5989,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="103"/>
       <c r="B38" s="44" t="s">
         <v>438</v>
@@ -5781,7 +6002,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="103"/>
       <c r="B39" s="44" t="s">
         <v>439</v>
@@ -5794,7 +6015,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="103"/>
       <c r="B40" s="44" t="s">
         <v>440</v>
@@ -5807,7 +6028,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="103"/>
       <c r="B41" s="44" t="s">
         <v>441</v>
@@ -5820,7 +6041,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="103"/>
       <c r="B42" s="44" t="s">
         <v>442</v>
@@ -5849,30 +6070,36 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F00AC-6369-444E-97A7-570DF9A097D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -5905,7 +6132,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="C3" s="106" t="s">
         <v>46</v>
       </c>
@@ -5947,7 +6174,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -6003,7 +6230,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -6060,7 +6287,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
@@ -6081,7 +6308,7 @@
         <v>726.63195635754971</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -6130,7 +6357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
@@ -6187,7 +6414,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -6244,7 +6471,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -6267,7 +6494,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="G11" s="8"/>
       <c r="I11" s="25" t="s">
         <v>147</v>
@@ -6298,7 +6525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -6340,7 +6567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -6391,7 +6618,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
@@ -6407,7 +6634,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -6423,7 +6650,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -6439,7 +6666,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -6454,7 +6681,7 @@
         <v>723.13207645629996</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -6472,7 +6699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -6503,7 +6730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="15" thickBot="1">
       <c r="H20" s="10" t="s">
         <v>72</v>
       </c>
@@ -6523,7 +6750,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="15" thickBot="1">
       <c r="B21" t="s">
         <v>61</v>
       </c>
@@ -6546,7 +6773,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -6578,7 +6805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="15" thickBot="1">
       <c r="B23" s="12" t="s">
         <v>62</v>
       </c>
@@ -6611,7 +6838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="15" thickBot="1">
       <c r="B24" t="s">
         <v>63</v>
       </c>
@@ -6644,7 +6871,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="15" thickBot="1">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -6677,7 +6904,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -6710,7 +6937,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="15" thickBot="1">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -6743,7 +6970,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="15" thickBot="1">
       <c r="H28" s="10" t="s">
         <v>82</v>
       </c>
@@ -6763,7 +6990,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="15" thickBot="1">
       <c r="B29" t="s">
         <v>148</v>
       </c>
@@ -6786,7 +7013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="15" thickBot="1">
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -6818,7 +7045,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="15" thickBot="1">
       <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
@@ -6851,7 +7078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="15" thickBot="1">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -6884,7 +7111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="15" thickBot="1">
       <c r="B33" t="s">
         <v>64</v>
       </c>
@@ -6917,7 +7144,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" ht="15" thickBot="1">
       <c r="B34" t="s">
         <v>65</v>
       </c>
@@ -6950,7 +7177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>66</v>
       </c>
@@ -6988,12 +7215,12 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="H36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>149</v>
       </c>
@@ -7014,7 +7241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -7049,7 +7276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>89</v>
       </c>
@@ -7085,7 +7312,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -7121,7 +7348,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>63</v>
       </c>
@@ -7157,7 +7384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -7193,7 +7420,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -7229,7 +7456,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="G44" s="16" t="s">
         <v>107</v>
       </c>
@@ -7252,7 +7479,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -7278,7 +7505,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -7313,7 +7540,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>62</v>
       </c>
@@ -7349,7 +7576,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" s="12" t="s">
         <v>63</v>
       </c>
@@ -7364,7 +7591,7 @@
         <v>676.35789342625401</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -7382,7 +7609,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="I50" t="s">
         <v>93</v>
       </c>
@@ -7399,7 +7626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="G51" s="16" t="s">
         <v>117</v>
       </c>
@@ -7422,7 +7649,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="G52" s="16" t="s">
         <v>97</v>
       </c>
@@ -7445,7 +7672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13">
       <c r="G53" s="16" t="s">
         <v>101</v>
       </c>
@@ -7468,7 +7695,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="G54" s="16" t="s">
         <v>16</v>
       </c>
@@ -7491,7 +7718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="G55" s="16" t="s">
         <v>102</v>
       </c>
@@ -7514,7 +7741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13">
       <c r="G56" s="16" t="s">
         <v>119</v>
       </c>
@@ -7537,7 +7764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13">
       <c r="G57" s="16" t="s">
         <v>120</v>
       </c>
@@ -7560,7 +7787,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="G58" s="16" t="s">
         <v>105</v>
       </c>
@@ -7583,7 +7810,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="G59" s="16" t="s">
         <v>106</v>
       </c>
@@ -7606,7 +7833,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="G60" s="16" t="s">
         <v>121</v>
       </c>
@@ -7629,7 +7856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="G61" s="16" t="s">
         <v>107</v>
       </c>
@@ -7652,7 +7879,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="G62" s="16" t="s">
         <v>96</v>
       </c>
@@ -7675,7 +7902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="G63" s="16" t="s">
         <v>95</v>
       </c>
@@ -7698,7 +7925,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="G64" s="16" t="s">
         <v>122</v>
       </c>
@@ -7721,7 +7948,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="65" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:14">
       <c r="G65" s="16" t="s">
         <v>123</v>
       </c>
@@ -7744,7 +7971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:14">
       <c r="G66" s="16" t="s">
         <v>108</v>
       </c>
@@ -7767,7 +7994,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:14">
       <c r="G67" s="16" t="s">
         <v>124</v>
       </c>
@@ -7790,12 +8017,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:14">
       <c r="H69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:14">
       <c r="I70" t="s">
         <v>93</v>
       </c>
@@ -7815,7 +8042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:14">
       <c r="G71" s="16" t="s">
         <v>117</v>
       </c>
@@ -7841,7 +8068,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="72" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:14">
       <c r="G72" s="16" t="s">
         <v>97</v>
       </c>
@@ -7867,7 +8094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:14">
       <c r="G73" s="16" t="s">
         <v>101</v>
       </c>
@@ -7893,7 +8120,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="74" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:14">
       <c r="G74" s="16" t="s">
         <v>16</v>
       </c>
@@ -7919,7 +8146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:14">
       <c r="G75" s="16" t="s">
         <v>102</v>
       </c>
@@ -7945,7 +8172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:14">
       <c r="G76" s="16" t="s">
         <v>119</v>
       </c>
@@ -7971,7 +8198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:14">
       <c r="G77" s="16" t="s">
         <v>120</v>
       </c>
@@ -7997,7 +8224,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="78" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:14">
       <c r="G78" s="16" t="s">
         <v>105</v>
       </c>
@@ -8023,7 +8250,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="79" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:14">
       <c r="G79" s="16" t="s">
         <v>106</v>
       </c>
@@ -8049,7 +8276,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:14">
       <c r="G80" s="16" t="s">
         <v>121</v>
       </c>
@@ -8075,7 +8302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:14">
       <c r="G81" s="16" t="s">
         <v>107</v>
       </c>
@@ -8101,7 +8328,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:14">
       <c r="G82" s="16" t="s">
         <v>96</v>
       </c>
@@ -8127,7 +8354,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:14">
       <c r="G83" s="16" t="s">
         <v>95</v>
       </c>
@@ -8153,7 +8380,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="84" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:14">
       <c r="G84" s="16" t="s">
         <v>122</v>
       </c>
@@ -8179,7 +8406,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:14">
       <c r="G85" s="16" t="s">
         <v>123</v>
       </c>
@@ -8205,7 +8432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:14">
       <c r="G86" s="16" t="s">
         <v>108</v>
       </c>
@@ -8231,7 +8458,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:14">
       <c r="G87" s="16" t="s">
         <v>124</v>
       </c>
@@ -8262,40 +8489,50 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB4BB1-0EE7-4008-86E8-18A55D8A6861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D196F-9612-46E0-A260-5D2B5930FCF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>359</v>
       </c>
@@ -8310,7 +8547,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42">
       <c r="A2" s="3" t="s">
         <v>363</v>
       </c>
@@ -8327,7 +8564,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28">
       <c r="A3" s="3" t="s">
         <v>368</v>
       </c>
@@ -8342,7 +8579,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -8357,7 +8594,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="3" t="s">
         <v>373</v>
       </c>
@@ -8372,7 +8609,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42">
       <c r="A6" s="3" t="s">
         <v>374</v>
       </c>
@@ -8387,7 +8624,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="3" t="s">
         <v>376</v>
       </c>
@@ -8402,7 +8639,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="3" t="s">
         <v>379</v>
       </c>
@@ -8419,155 +8656,160 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="25" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="25" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="81" t="s">
         <v>392</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C92A539D-3251-44AA-8618-082B1A519A55}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{572C21C3-60AC-4A53-9521-7EABACFAF55B}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{6F6DF46F-52B0-492C-9238-F44E3A7D5B1B}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{A16E0E8C-DD65-49DB-8AF8-A4606696DD9E}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{3E48EC72-DCE5-46C3-AA87-CFBB6FDBE8F5}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{7342AE03-462A-4128-B763-9C0A5D01304D}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{3CB774B9-25DD-43BE-99B8-D5E5796FB9E6}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{38403F54-DBEB-439B-8A70-97AC38B89676}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{D808A992-E3CE-43A5-8559-59744915E441}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="E8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7A008A-804F-4C39-A6D2-7C21FCFE4ACD}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="8" width="7.140625" style="25" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="7.1640625" style="25" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="25" customWidth="1"/>
     <col min="11" max="11" width="10" style="25" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="10.28515625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="25" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="25" customWidth="1"/>
+    <col min="12" max="15" width="8.83203125" style="25"/>
+    <col min="16" max="16" width="10.33203125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="25" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" style="25" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="25" customWidth="1"/>
     <col min="21" max="21" width="12" style="25" customWidth="1"/>
-    <col min="22" max="26" width="4.5703125" style="25" customWidth="1"/>
-    <col min="27" max="27" width="36.85546875" style="25" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="25"/>
+    <col min="22" max="26" width="4.5" style="25" customWidth="1"/>
+    <col min="27" max="27" width="36.83203125" style="25" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107" t="s">
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107" t="s">
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107" t="s">
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="28">
       <c r="A2" s="40" t="s">
         <v>446</v>
       </c>
@@ -8646,173 +8888,178 @@
       <c r="Z2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="107"/>
-    </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="AA2" s="108"/>
+    </row>
+    <row r="3" spans="1:27" ht="28">
+      <c r="A3" s="107" t="s">
         <v>447</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+    <row r="4" spans="1:27" ht="28">
+      <c r="A4" s="107"/>
       <c r="B4" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:27" ht="28">
+      <c r="A5" s="107"/>
       <c r="B5" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+    <row r="6" spans="1:27" ht="28">
+      <c r="A6" s="107"/>
       <c r="B6" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+    <row r="7" spans="1:27" ht="56">
+      <c r="A7" s="107" t="s">
         <v>452</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:27" ht="42">
+      <c r="A8" s="107"/>
       <c r="B8" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:27" ht="56">
+      <c r="A9" s="107"/>
       <c r="B9" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+    <row r="10" spans="1:27" ht="42">
+      <c r="A10" s="107"/>
       <c r="B10" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:27">
+      <c r="A11" s="107" t="s">
         <v>457</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+    <row r="12" spans="1:27">
+      <c r="A12" s="107"/>
       <c r="B12" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+    <row r="13" spans="1:27">
+      <c r="A13" s="107"/>
       <c r="B13" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+    <row r="14" spans="1:27">
+      <c r="A14" s="107"/>
       <c r="B14" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="28">
       <c r="A19" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D9CDE-2ACC-4300-AB58-DC0F6A745C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -8829,7 +9076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8846,7 +9093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -8863,7 +9110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8880,7 +9127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -8897,7 +9144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -8914,7 +9161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -8931,7 +9178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -8948,7 +9195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -8965,7 +9212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -8982,7 +9229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -8999,7 +9246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -9016,7 +9263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -9033,7 +9280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -9050,7 +9297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -9067,7 +9314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -9084,7 +9331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -9101,7 +9348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -9118,7 +9365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -9135,7 +9382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -9152,7 +9399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -9169,7 +9416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -9186,7 +9433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -9203,7 +9450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -9220,7 +9467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -9237,7 +9484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -9254,7 +9501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -9272,7 +9519,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E28" xr:uid="{2D04EDC7-76D8-4E49-99EE-A28360DC2B16}">
+  <autoFilter ref="A2:E28">
     <sortState ref="A3:E28">
       <sortCondition ref="A2:A28"/>
     </sortState>
@@ -9281,5 +9528,10 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>